--- a/Grygoriev/matrix/Time.xlsx
+++ b/Grygoriev/matrix/Time.xlsx
@@ -89,6 +89,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -98,6 +129,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Експеримент</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -122,6 +156,22 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Теорія N=C*t^3</c:name>
+            <c:spPr>
+              <a:ln w="28575" cap="sq" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$2:$A$11</c:f>
@@ -212,11 +262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221693024"/>
-        <c:axId val="221691848"/>
+        <c:axId val="333841184"/>
+        <c:axId val="333839616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221693024"/>
+        <c:axId val="333841184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +366,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221691848"/>
+        <c:crossAx val="333839616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -324,7 +374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221691848"/>
+        <c:axId val="333839616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +483,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221693024"/>
+        <c:crossAx val="333841184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,6 +495,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -998,8 +1080,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -1313,7 +1395,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
